--- a/dev/modèle bon de commande vierge/modele_bdc_vierge_ugve.xlsx
+++ b/dev/modèle bon de commande vierge/modele_bdc_vierge_ugve.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\LibreSQE\dev\modèle bon de commande vierge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6FE11E-472C-4F43-8FFF-5922FE35B636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4B855F-CB10-4036-99E5-E2F0B030FF90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="quantitatif" sheetId="9" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">trame!$A$1:$C$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">programme!$A$1:$I$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">programme!$A$1:$I$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">quantitatif!$A$1:$F$62</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="61">
   <si>
     <t>Nom prestation</t>
   </si>
@@ -449,7 +449,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -546,13 +546,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -562,6 +558,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -582,12 +587,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -980,8 +979,8 @@
   </sheetPr>
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,82 +994,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
     </row>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="B3" s="5"/>
     </row>
     <row r="4" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="46"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="44"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="44"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="41"/>
+      <c r="F8" s="39"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
@@ -1120,8 +1119,9 @@
       <c r="E12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="33" t="s">
-        <v>28</v>
+      <c r="F12" s="33" t="e">
+        <f>IF(E12&gt;0,D12*E12,"")</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1130,7 +1130,10 @@
       <c r="C13" s="4"/>
       <c r="D13" s="34"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="33"/>
+      <c r="F13" s="33" t="str">
+        <f t="shared" ref="F13:F50" si="0">IF(E13&gt;0,D13*E13,"")</f>
+        <v/>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
@@ -1138,7 +1141,10 @@
       <c r="C14" s="4"/>
       <c r="D14" s="34"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="33"/>
+      <c r="F14" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
@@ -1146,7 +1152,10 @@
       <c r="C15" s="4"/>
       <c r="D15" s="34"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="33"/>
+      <c r="F15" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
@@ -1154,7 +1163,10 @@
       <c r="C16" s="4"/>
       <c r="D16" s="34"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="33"/>
+      <c r="F16" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
@@ -1162,7 +1174,10 @@
       <c r="C17" s="4"/>
       <c r="D17" s="34"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="33"/>
+      <c r="F17" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
@@ -1170,7 +1185,10 @@
       <c r="C18" s="4"/>
       <c r="D18" s="34"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="33"/>
+      <c r="F18" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
@@ -1178,7 +1196,10 @@
       <c r="C19" s="4"/>
       <c r="D19" s="34"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="33"/>
+      <c r="F19" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
@@ -1186,7 +1207,10 @@
       <c r="C20" s="4"/>
       <c r="D20" s="34"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="33"/>
+      <c r="F20" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
@@ -1194,7 +1218,10 @@
       <c r="C21" s="4"/>
       <c r="D21" s="34"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="33"/>
+      <c r="F21" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
@@ -1202,7 +1229,10 @@
       <c r="C22" s="4"/>
       <c r="D22" s="34"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="33"/>
+      <c r="F22" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
@@ -1210,7 +1240,10 @@
       <c r="C23" s="4"/>
       <c r="D23" s="34"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="33"/>
+      <c r="F23" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
@@ -1218,7 +1251,10 @@
       <c r="C24" s="4"/>
       <c r="D24" s="34"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="33"/>
+      <c r="F24" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
@@ -1226,7 +1262,10 @@
       <c r="C25" s="4"/>
       <c r="D25" s="34"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="33"/>
+      <c r="F25" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
@@ -1234,7 +1273,10 @@
       <c r="C26" s="4"/>
       <c r="D26" s="34"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="33"/>
+      <c r="F26" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
@@ -1242,7 +1284,10 @@
       <c r="C27" s="4"/>
       <c r="D27" s="34"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="33"/>
+      <c r="F27" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
@@ -1250,7 +1295,10 @@
       <c r="C28" s="4"/>
       <c r="D28" s="34"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="33"/>
+      <c r="F28" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
@@ -1258,7 +1306,10 @@
       <c r="C29" s="4"/>
       <c r="D29" s="34"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="33"/>
+      <c r="F29" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
@@ -1266,7 +1317,10 @@
       <c r="C30" s="4"/>
       <c r="D30" s="34"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="33"/>
+      <c r="F30" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
@@ -1274,7 +1328,10 @@
       <c r="C31" s="4"/>
       <c r="D31" s="34"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="33"/>
+      <c r="F31" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
@@ -1282,7 +1339,10 @@
       <c r="C32" s="4"/>
       <c r="D32" s="34"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="33"/>
+      <c r="F32" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
@@ -1290,7 +1350,10 @@
       <c r="C33" s="4"/>
       <c r="D33" s="34"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="33"/>
+      <c r="F33" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
@@ -1298,7 +1361,10 @@
       <c r="C34" s="4"/>
       <c r="D34" s="34"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="33"/>
+      <c r="F34" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
@@ -1306,7 +1372,10 @@
       <c r="C35" s="4"/>
       <c r="D35" s="34"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="33"/>
+      <c r="F35" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
@@ -1314,7 +1383,10 @@
       <c r="C36" s="4"/>
       <c r="D36" s="34"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="33"/>
+      <c r="F36" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
@@ -1322,7 +1394,10 @@
       <c r="C37" s="4"/>
       <c r="D37" s="34"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="33"/>
+      <c r="F37" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
@@ -1330,7 +1405,10 @@
       <c r="C38" s="4"/>
       <c r="D38" s="34"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="33"/>
+      <c r="F38" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
@@ -1338,7 +1416,10 @@
       <c r="C39" s="4"/>
       <c r="D39" s="34"/>
       <c r="E39" s="3"/>
-      <c r="F39" s="33"/>
+      <c r="F39" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
@@ -1346,7 +1427,10 @@
       <c r="C40" s="4"/>
       <c r="D40" s="34"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="33"/>
+      <c r="F40" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
@@ -1354,7 +1438,10 @@
       <c r="C41" s="4"/>
       <c r="D41" s="34"/>
       <c r="E41" s="3"/>
-      <c r="F41" s="33"/>
+      <c r="F41" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
@@ -1362,7 +1449,10 @@
       <c r="C42" s="4"/>
       <c r="D42" s="34"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="33"/>
+      <c r="F42" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
@@ -1370,7 +1460,10 @@
       <c r="C43" s="4"/>
       <c r="D43" s="34"/>
       <c r="E43" s="3"/>
-      <c r="F43" s="33"/>
+      <c r="F43" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
@@ -1378,7 +1471,10 @@
       <c r="C44" s="4"/>
       <c r="D44" s="34"/>
       <c r="E44" s="3"/>
-      <c r="F44" s="33"/>
+      <c r="F44" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
@@ -1386,7 +1482,10 @@
       <c r="C45" s="4"/>
       <c r="D45" s="34"/>
       <c r="E45" s="3"/>
-      <c r="F45" s="33"/>
+      <c r="F45" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
@@ -1394,7 +1493,10 @@
       <c r="C46" s="4"/>
       <c r="D46" s="34"/>
       <c r="E46" s="3"/>
-      <c r="F46" s="33"/>
+      <c r="F46" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
@@ -1402,7 +1504,10 @@
       <c r="C47" s="4"/>
       <c r="D47" s="34"/>
       <c r="E47" s="3"/>
-      <c r="F47" s="33"/>
+      <c r="F47" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
@@ -1410,7 +1515,10 @@
       <c r="C48" s="4"/>
       <c r="D48" s="34"/>
       <c r="E48" s="3"/>
-      <c r="F48" s="33"/>
+      <c r="F48" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
@@ -1418,7 +1526,10 @@
       <c r="C49" s="4"/>
       <c r="D49" s="34"/>
       <c r="E49" s="3"/>
-      <c r="F49" s="33"/>
+      <c r="F49" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="21"/>
@@ -1426,7 +1537,10 @@
       <c r="C50" s="22"/>
       <c r="D50" s="35"/>
       <c r="E50" s="21"/>
-      <c r="F50" s="36"/>
+      <c r="F50" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="23"/>
@@ -1436,8 +1550,9 @@
       <c r="E51" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="F51" s="37" t="s">
-        <v>41</v>
+      <c r="F51" s="36" t="e">
+        <f>SUM(F12:F50)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1448,8 +1563,9 @@
       <c r="E52" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="F52" s="38" t="s">
-        <v>42</v>
+      <c r="F52" s="42" t="e">
+        <f>0.2*F51</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1460,17 +1576,18 @@
       <c r="E53" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="F53" s="39" t="s">
-        <v>43</v>
+      <c r="F53" s="37" t="e">
+        <f>F52+F51</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="49" t="s">
+      <c r="B57" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C57" s="50">
+      <c r="C57" s="41">
         <f ca="1">TODAY()</f>
-        <v>45306</v>
+        <v>45632</v>
       </c>
     </row>
   </sheetData>
@@ -1497,10 +1614,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1525,11 +1642,11 @@
       <c r="D1" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
@@ -1904,12 +2021,45 @@
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
     </row>
+    <row r="36" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+    </row>
+    <row r="37" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+    </row>
+    <row r="38" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="63" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -2167,21 +2317,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B364072B9BF0174EACE646529BD3F8FC" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="0a61469fa4392fe95df6df9ebb4bd246">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2efdd341-56d0-41e7-aab3-73531d8de268" xmlns:ns4="283c0d33-edfc-4847-af07-30bb862e3054" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ce621300719ead46a930f93492683fbc" ns3:_="" ns4:_="">
     <xsd:import namespace="2efdd341-56d0-41e7-aab3-73531d8de268"/>
@@ -2410,10 +2545,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{240AF456-82BA-4AF0-AA0F-2057DA65B299}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{541E0AED-18F9-4FA5-A843-11A8B9552700}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2efdd341-56d0-41e7-aab3-73531d8de268"/>
+    <ds:schemaRef ds:uri="283c0d33-edfc-4847-af07-30bb862e3054"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2436,20 +2597,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{541E0AED-18F9-4FA5-A843-11A8B9552700}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{240AF456-82BA-4AF0-AA0F-2057DA65B299}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2efdd341-56d0-41e7-aab3-73531d8de268"/>
-    <ds:schemaRef ds:uri="283c0d33-edfc-4847-af07-30bb862e3054"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/dev/modèle bon de commande vierge/modele_bdc_vierge_ugve.xlsx
+++ b/dev/modèle bon de commande vierge/modele_bdc_vierge_ugve.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\LibreSQE\dev\modèle bon de commande vierge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4B855F-CB10-4036-99E5-E2F0B030FF90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DE2729-9ECA-4D9D-BA54-E4FF31897F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="quantitatif" sheetId="9" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">trame!$A$1:$C$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">programme!$A$1:$I$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">programme!$A$1:$J$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">quantitatif!$A$1:$F$62</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -979,7 +979,7 @@
   </sheetPr>
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C57" s="41">
         <f ca="1">TODAY()</f>
-        <v>45632</v>
+        <v>46029</v>
       </c>
     </row>
   </sheetData>
@@ -1614,10 +1614,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1632,7 +1632,7 @@
     <col min="9" max="9" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
         <v>35</v>
       </c>
@@ -1648,7 +1648,7 @@
       <c r="H1" s="43"/>
       <c r="I1" s="43"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>36</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="17" customFormat="1" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="17" customFormat="1" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>33</v>
       </c>
@@ -1668,8 +1668,9 @@
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
-    </row>
-    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J3" s="16"/>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -1679,8 +1680,9 @@
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
-    </row>
-    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -1690,8 +1692,9 @@
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
-    </row>
-    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -1701,8 +1704,9 @@
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
-    </row>
-    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -1712,8 +1716,9 @@
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
-    </row>
-    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -1723,8 +1728,9 @@
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
-    </row>
-    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -1734,8 +1740,9 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
-    </row>
-    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -1745,8 +1752,9 @@
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
-    </row>
-    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1756,8 +1764,9 @@
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
-    </row>
-    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -1767,8 +1776,9 @@
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
-    </row>
-    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -1778,8 +1788,9 @@
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
-    </row>
-    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J13" s="14"/>
+    </row>
+    <row r="14" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -1789,8 +1800,9 @@
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
-    </row>
-    <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J14" s="14"/>
+    </row>
+    <row r="15" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -1800,8 +1812,9 @@
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
-    </row>
-    <row r="16" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J15" s="14"/>
+    </row>
+    <row r="16" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -1811,8 +1824,9 @@
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
-    </row>
-    <row r="17" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -1822,8 +1836,9 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
-    </row>
-    <row r="18" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J17" s="14"/>
+    </row>
+    <row r="18" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -1833,8 +1848,9 @@
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
-    </row>
-    <row r="19" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J18" s="14"/>
+    </row>
+    <row r="19" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -1844,8 +1860,9 @@
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
-    </row>
-    <row r="20" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J19" s="14"/>
+    </row>
+    <row r="20" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -1855,8 +1872,9 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
-    </row>
-    <row r="21" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J20" s="14"/>
+    </row>
+    <row r="21" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -1866,8 +1884,9 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
-    </row>
-    <row r="22" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J21" s="14"/>
+    </row>
+    <row r="22" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -1877,8 +1896,9 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
-    </row>
-    <row r="23" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J22" s="14"/>
+    </row>
+    <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -1888,8 +1908,9 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
-    </row>
-    <row r="24" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J23" s="14"/>
+    </row>
+    <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -1899,8 +1920,9 @@
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
-    </row>
-    <row r="25" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J24" s="14"/>
+    </row>
+    <row r="25" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -1910,8 +1932,9 @@
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
-    </row>
-    <row r="26" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J25" s="14"/>
+    </row>
+    <row r="26" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -1921,8 +1944,9 @@
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
-    </row>
-    <row r="27" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J26" s="14"/>
+    </row>
+    <row r="27" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -1932,8 +1956,9 @@
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
-    </row>
-    <row r="28" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J27" s="14"/>
+    </row>
+    <row r="28" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -1943,8 +1968,9 @@
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
-    </row>
-    <row r="29" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J28" s="14"/>
+    </row>
+    <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -1954,8 +1980,9 @@
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
-    </row>
-    <row r="30" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J29" s="14"/>
+    </row>
+    <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -1965,8 +1992,9 @@
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
-    </row>
-    <row r="31" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J30" s="14"/>
+    </row>
+    <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -1976,8 +2004,9 @@
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
-    </row>
-    <row r="32" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J31" s="14"/>
+    </row>
+    <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -1987,8 +2016,9 @@
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
-    </row>
-    <row r="33" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J32" s="14"/>
+    </row>
+    <row r="33" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -1998,8 +2028,9 @@
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
-    </row>
-    <row r="34" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J33" s="14"/>
+    </row>
+    <row r="34" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -2009,8 +2040,9 @@
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
-    </row>
-    <row r="35" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J34" s="14"/>
+    </row>
+    <row r="35" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -2020,8 +2052,9 @@
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
-    </row>
-    <row r="36" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J35" s="14"/>
+    </row>
+    <row r="36" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -2031,8 +2064,9 @@
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
-    </row>
-    <row r="37" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J36" s="14"/>
+    </row>
+    <row r="37" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -2042,8 +2076,9 @@
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
-    </row>
-    <row r="38" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J37" s="14"/>
+    </row>
+    <row r="38" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -2053,13 +2088,74 @@
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+    </row>
+    <row r="39" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+    </row>
+    <row r="40" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+    </row>
+    <row r="41" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+    </row>
+    <row r="42" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+    </row>
+    <row r="43" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="11"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="53" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -2317,6 +2413,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B364072B9BF0174EACE646529BD3F8FC" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="0a61469fa4392fe95df6df9ebb4bd246">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2efdd341-56d0-41e7-aab3-73531d8de268" xmlns:ns4="283c0d33-edfc-4847-af07-30bb862e3054" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ce621300719ead46a930f93492683fbc" ns3:_="" ns4:_="">
     <xsd:import namespace="2efdd341-56d0-41e7-aab3-73531d8de268"/>
@@ -2545,22 +2650,21 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{240AF456-82BA-4AF0-AA0F-2057DA65B299}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{541E0AED-18F9-4FA5-A843-11A8B9552700}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2579,7 +2683,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF16ACF2-37E9-4949-9A93-88A3A015DDE8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -2594,12 +2698,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{240AF456-82BA-4AF0-AA0F-2057DA65B299}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>